--- a/04_web_data/news.xlsx
+++ b/04_web_data/news.xlsx
@@ -14,9 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>시황뉴스</t>
+  </si>
+  <si>
+    <t>코스피, 개인·기관 매수로 나흘 만에 상승…카카오·네이버도 '반..</t>
+  </si>
+  <si>
+    <t>[코스피 마감]개인·기관 동반 매수에 3120선 회복</t>
+  </si>
+  <si>
+    <t>[fn마감시황]코스피, 개인·기관 동반 매수에 3120선 회복</t>
+  </si>
+  <si>
+    <t>[마감시황]코스피, 0.36% 반등 마감···3,120대</t>
+  </si>
+  <si>
+    <t>[마감시황]코스피, 0.36% 오른 3125.76 상승 마감</t>
   </si>
 </sst>
 </file>
@@ -374,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,6 +400,31 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
